--- a/Data/2020_10_29.xlsx
+++ b/Data/2020_10_29.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-28 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-29 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,13 +301,13 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
-    <t xml:space="preserve">680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1671</t>
+    <t xml:space="preserve">794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1308</t>
   </si>
   <si>
     <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
@@ -322,6 +322,15 @@
     <t xml:space="preserve">125</t>
   </si>
   <si>
+    <t xml:space="preserve">5310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1279</t>
+  </si>
+  <si>
     <t xml:space="preserve">304</t>
   </si>
   <si>
@@ -367,6 +376,15 @@
     <t xml:space="preserve">2033</t>
   </si>
   <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
     <t xml:space="preserve">489</t>
   </si>
   <si>
@@ -376,6 +394,9 @@
     <t xml:space="preserve">473</t>
   </si>
   <si>
+    <t xml:space="preserve">743</t>
+  </si>
+  <si>
     <t xml:space="preserve">1650</t>
   </si>
   <si>
@@ -394,6 +415,15 @@
     <t xml:space="preserve">317</t>
   </si>
   <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
     <t xml:space="preserve">242</t>
   </si>
   <si>
@@ -412,7 +442,13 @@
     <t xml:space="preserve">321</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453</t>
   </si>
   <si>
     <t xml:space="preserve">134</t>
@@ -4509,10 +4545,10 @@
         <v>35898</v>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4535,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -4558,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4581,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="E172" t="n">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4604,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -4627,7 +4663,7 @@
         <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4650,7 +4686,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4673,7 +4709,7 @@
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4693,10 +4729,10 @@
         <v>37336</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>4307</v>
+        <v>4309</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4719,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4312</v>
+        <v>4314</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4742,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4762,10 +4798,10 @@
         <v>38090</v>
       </c>
       <c r="D180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>4327</v>
+        <v>4330</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4788,7 +4824,7 @@
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -4811,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4342</v>
+        <v>4345</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4834,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4351</v>
+        <v>4354</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -4857,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4358</v>
+        <v>4361</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4880,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>4364</v>
+        <v>4367</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4903,7 +4939,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>4371</v>
+        <v>4374</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4926,7 +4962,7 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4379</v>
+        <v>4382</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -4949,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4383</v>
+        <v>4386</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -4972,7 +5008,7 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4389</v>
+        <v>4392</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -4995,7 +5031,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4396</v>
+        <v>4399</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5018,7 +5054,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5041,7 +5077,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4407</v>
+        <v>4410</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5064,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4412</v>
+        <v>4415</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5087,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4421</v>
+        <v>4424</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5110,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4423</v>
+        <v>4426</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5133,7 +5169,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4430</v>
+        <v>4433</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5156,7 +5192,7 @@
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>4436</v>
+        <v>4439</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -5179,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4446</v>
+        <v>4449</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -5202,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="E199" t="n">
-        <v>4456</v>
+        <v>4459</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5222,10 +5258,10 @@
         <v>43890</v>
       </c>
       <c r="D200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E200" t="n">
-        <v>4464</v>
+        <v>4468</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5248,7 +5284,7 @@
         <v>9</v>
       </c>
       <c r="E201" t="n">
-        <v>4473</v>
+        <v>4477</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5271,7 +5307,7 @@
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4481</v>
+        <v>4485</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5294,7 +5330,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>4488</v>
+        <v>4492</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5317,7 +5353,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4502</v>
+        <v>4506</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5337,10 +5373,10 @@
         <v>45631</v>
       </c>
       <c r="D205" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>4508</v>
+        <v>4513</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5363,7 +5399,7 @@
         <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>4519</v>
+        <v>4524</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5383,10 +5419,10 @@
         <v>46598</v>
       </c>
       <c r="D207" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E207" t="n">
-        <v>4536</v>
+        <v>4542</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5409,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>4548</v>
+        <v>4554</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5432,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4561</v>
+        <v>4567</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -5455,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4572</v>
+        <v>4578</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5478,7 +5514,7 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5501,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>4592</v>
+        <v>4598</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5524,7 +5560,7 @@
         <v>20</v>
       </c>
       <c r="E213" t="n">
-        <v>4612</v>
+        <v>4618</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5544,10 +5580,10 @@
         <v>49607</v>
       </c>
       <c r="D214" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="n">
-        <v>4621</v>
+        <v>4628</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5567,10 +5603,10 @@
         <v>50052</v>
       </c>
       <c r="D215" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E215" t="n">
-        <v>4637</v>
+        <v>4645</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5593,7 +5629,7 @@
         <v>8</v>
       </c>
       <c r="E216" t="n">
-        <v>4645</v>
+        <v>4653</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5616,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4657</v>
+        <v>4665</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5636,10 +5672,10 @@
         <v>50933</v>
       </c>
       <c r="D218" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E218" t="n">
-        <v>4673</v>
+        <v>4682</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5662,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>4679</v>
+        <v>4688</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5682,10 +5718,10 @@
         <v>51744</v>
       </c>
       <c r="D220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E220" t="n">
-        <v>4690</v>
+        <v>4700</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5705,10 +5741,10 @@
         <v>52053</v>
       </c>
       <c r="D221" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
-        <v>4702</v>
+        <v>4713</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5731,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="E222" t="n">
-        <v>4712</v>
+        <v>4723</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5754,7 +5790,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4719</v>
+        <v>4730</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5777,7 +5813,7 @@
         <v>17</v>
       </c>
       <c r="E224" t="n">
-        <v>4736</v>
+        <v>4747</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5800,7 +5836,7 @@
         <v>14</v>
       </c>
       <c r="E225" t="n">
-        <v>4750</v>
+        <v>4761</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5820,10 +5856,10 @@
         <v>53569</v>
       </c>
       <c r="D226" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E226" t="n">
-        <v>4771</v>
+        <v>4783</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5846,7 +5882,7 @@
         <v>17</v>
       </c>
       <c r="E227" t="n">
-        <v>4788</v>
+        <v>4800</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5866,10 +5902,10 @@
         <v>54704</v>
       </c>
       <c r="D228" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E228" t="n">
-        <v>4798</v>
+        <v>4811</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
@@ -5889,10 +5925,10 @@
         <v>55378</v>
       </c>
       <c r="D229" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E229" t="n">
-        <v>4816</v>
+        <v>4830</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -5912,10 +5948,10 @@
         <v>55889</v>
       </c>
       <c r="D230" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E230" t="n">
-        <v>4827</v>
+        <v>4843</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -5935,10 +5971,10 @@
         <v>56203</v>
       </c>
       <c r="D231" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E231" t="n">
-        <v>4837</v>
+        <v>4854</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -5958,10 +5994,10 @@
         <v>57223</v>
       </c>
       <c r="D232" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E232" t="n">
-        <v>4849</v>
+        <v>4867</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -5981,10 +6017,10 @@
         <v>58320</v>
       </c>
       <c r="D233" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E233" t="n">
-        <v>4873</v>
+        <v>4892</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6007,7 +6043,7 @@
         <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>4902</v>
+        <v>4921</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -6030,7 +6066,7 @@
         <v>38</v>
       </c>
       <c r="E235" t="n">
-        <v>4940</v>
+        <v>4959</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
@@ -6053,7 +6089,7 @@
         <v>34</v>
       </c>
       <c r="E236" t="n">
-        <v>4974</v>
+        <v>4993</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
@@ -6076,7 +6112,7 @@
         <v>27</v>
       </c>
       <c r="E237" t="n">
-        <v>5001</v>
+        <v>5020</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
@@ -6096,10 +6132,10 @@
         <v>64957</v>
       </c>
       <c r="D238" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E238" t="n">
-        <v>5036</v>
+        <v>5057</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -6113,16 +6149,16 @@
         <v>44116</v>
       </c>
       <c r="B239" t="n">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="C239" t="n">
-        <v>67520</v>
+        <v>67521</v>
       </c>
       <c r="D239" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E239" t="n">
-        <v>5092</v>
+        <v>5117</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
@@ -6139,13 +6175,13 @@
         <v>2692</v>
       </c>
       <c r="C240" t="n">
-        <v>70212</v>
+        <v>70213</v>
       </c>
       <c r="D240" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E240" t="n">
-        <v>5138</v>
+        <v>5166</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
@@ -6159,16 +6195,16 @@
         <v>44118</v>
       </c>
       <c r="B241" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="C241" t="n">
-        <v>73211</v>
+        <v>73213</v>
       </c>
       <c r="D241" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E241" t="n">
-        <v>5208</v>
+        <v>5235</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
@@ -6182,16 +6218,16 @@
         <v>44119</v>
       </c>
       <c r="B242" t="n">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C242" t="n">
-        <v>76604</v>
+        <v>76607</v>
       </c>
       <c r="D242" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E242" t="n">
-        <v>5272</v>
+        <v>5301</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
@@ -6208,13 +6244,13 @@
         <v>3691</v>
       </c>
       <c r="C243" t="n">
-        <v>80295</v>
+        <v>80298</v>
       </c>
       <c r="D243" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E243" t="n">
-        <v>5337</v>
+        <v>5372</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
@@ -6228,16 +6264,16 @@
         <v>44121</v>
       </c>
       <c r="B244" t="n">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C244" t="n">
-        <v>82674</v>
+        <v>82678</v>
       </c>
       <c r="D244" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E244" t="n">
-        <v>5417</v>
+        <v>5457</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
@@ -6251,16 +6287,16 @@
         <v>44122</v>
       </c>
       <c r="B245" t="n">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C245" t="n">
-        <v>84465</v>
+        <v>84468</v>
       </c>
       <c r="D245" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E245" t="n">
-        <v>5473</v>
+        <v>5516</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
@@ -6277,13 +6313,13 @@
         <v>5411</v>
       </c>
       <c r="C246" t="n">
-        <v>89876</v>
+        <v>89879</v>
       </c>
       <c r="D246" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E246" t="n">
-        <v>5592</v>
+        <v>5639</v>
       </c>
       <c r="F246" t="n">
         <v>11</v>
@@ -6297,16 +6333,16 @@
         <v>44124</v>
       </c>
       <c r="B247" t="n">
-        <v>5667</v>
+        <v>5672</v>
       </c>
       <c r="C247" t="n">
-        <v>95543</v>
+        <v>95551</v>
       </c>
       <c r="D247" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E247" t="n">
-        <v>5693</v>
+        <v>5746</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
@@ -6320,16 +6356,16 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6467</v>
+        <v>6465</v>
       </c>
       <c r="C248" t="n">
-        <v>102010</v>
+        <v>102016</v>
       </c>
       <c r="D248" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E248" t="n">
-        <v>5777</v>
+        <v>5837</v>
       </c>
       <c r="F248" t="n">
         <v>9</v>
@@ -6343,16 +6379,16 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6771</v>
+        <v>6773</v>
       </c>
       <c r="C249" t="n">
-        <v>108781</v>
+        <v>108789</v>
       </c>
       <c r="D249" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E249" t="n">
-        <v>5869</v>
+        <v>5943</v>
       </c>
       <c r="F249" t="n">
         <v>17</v>
@@ -6366,22 +6402,22 @@
         <v>44127</v>
       </c>
       <c r="B250" t="n">
-        <v>7453</v>
+        <v>7470</v>
       </c>
       <c r="C250" t="n">
-        <v>116234</v>
+        <v>116259</v>
       </c>
       <c r="D250" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E250" t="n">
-        <v>5964</v>
+        <v>6065</v>
       </c>
       <c r="F250" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G250" t="n">
-        <v>1911</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="251">
@@ -6389,22 +6425,22 @@
         <v>44128</v>
       </c>
       <c r="B251" t="n">
-        <v>4549</v>
+        <v>4645</v>
       </c>
       <c r="C251" t="n">
-        <v>120783</v>
+        <v>120904</v>
       </c>
       <c r="D251" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E251" t="n">
-        <v>6034</v>
+        <v>6157</v>
       </c>
       <c r="F251" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G251" t="n">
-        <v>1929</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="252">
@@ -6412,22 +6448,22 @@
         <v>44129</v>
       </c>
       <c r="B252" t="n">
-        <v>3123</v>
+        <v>3185</v>
       </c>
       <c r="C252" t="n">
-        <v>123906</v>
+        <v>124089</v>
       </c>
       <c r="D252" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E252" t="n">
-        <v>6096</v>
+        <v>6262</v>
       </c>
       <c r="F252" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G252" t="n">
-        <v>1940</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="253">
@@ -6435,22 +6471,22 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>7931</v>
+        <v>9641</v>
       </c>
       <c r="C253" t="n">
-        <v>131837</v>
+        <v>133730</v>
       </c>
       <c r="D253" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E253" t="n">
-        <v>6144</v>
+        <v>6363</v>
       </c>
       <c r="F253" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G253" t="n">
-        <v>1946</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="254">
@@ -6458,22 +6494,22 @@
         <v>44131</v>
       </c>
       <c r="B254" t="n">
-        <v>3816</v>
+        <v>7720</v>
       </c>
       <c r="C254" t="n">
-        <v>135653</v>
+        <v>141450</v>
       </c>
       <c r="D254" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E254" t="n">
-        <v>6156</v>
+        <v>6415</v>
       </c>
       <c r="F254" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G254" t="n">
-        <v>1954</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="255">
@@ -6481,22 +6517,45 @@
         <v>44132</v>
       </c>
       <c r="B255" t="n">
-        <v>5</v>
+        <v>3566</v>
       </c>
       <c r="C255" t="n">
-        <v>135658</v>
+        <v>145016</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E255" t="n">
-        <v>6156</v>
+        <v>6436</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G255" t="n">
-        <v>1954</v>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>44133</v>
+      </c>
+      <c r="B256" t="n">
+        <v>28</v>
+      </c>
+      <c r="C256" t="n">
+        <v>145044</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6436</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1985</v>
       </c>
     </row>
   </sheetData>
@@ -6586,22 +6645,22 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="C8" t="n">
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>129.3</v>
+        <v>136.7</v>
       </c>
       <c r="E8" t="n">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>111</v>
+        <v>119.5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -6610,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6621,34 +6680,34 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>4723</v>
+        <v>5158</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1085.1</v>
+        <v>1185</v>
       </c>
       <c r="E9" t="n">
-        <v>4799</v>
+        <v>5216</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="G9" t="n">
-        <v>1170.8</v>
+        <v>1272.5</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J9" t="n">
-        <v>9525</v>
+        <v>10377</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10">
@@ -6656,34 +6715,34 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>13289</v>
+        <v>14110</v>
       </c>
       <c r="C10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="D10" t="n">
-        <v>2459.3</v>
+        <v>2611.2</v>
       </c>
       <c r="E10" t="n">
-        <v>13332</v>
+        <v>14185</v>
       </c>
       <c r="F10" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2744.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28304</v>
+      </c>
+      <c r="K10" t="n">
         <v>19.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2579.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>26629</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19.6</v>
       </c>
     </row>
     <row r="11">
@@ -6691,31 +6750,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>11982</v>
+        <v>12812</v>
       </c>
       <c r="C11" t="n">
         <v>17.9</v>
       </c>
       <c r="D11" t="n">
-        <v>1945.2</v>
+        <v>2079.9</v>
       </c>
       <c r="E11" t="n">
-        <v>11685</v>
+        <v>12505</v>
       </c>
       <c r="F11" t="n">
         <v>17.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1934.3</v>
+        <v>2070</v>
       </c>
       <c r="H11" t="n">
         <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="J11" t="n">
-        <v>23681</v>
+        <v>25331</v>
       </c>
       <c r="K11" t="n">
         <v>17.5</v>
@@ -6726,31 +6785,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>10332</v>
+        <v>11095</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1698.1</v>
+        <v>1823.5</v>
       </c>
       <c r="E12" t="n">
-        <v>11181</v>
+        <v>11968</v>
       </c>
       <c r="F12" t="n">
         <v>16.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1858.7</v>
+        <v>1989.5</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4</v>
+        <v>19.6</v>
       </c>
       <c r="J12" t="n">
-        <v>21523</v>
+        <v>23073</v>
       </c>
       <c r="K12" t="n">
         <v>15.9</v>
@@ -6761,31 +6820,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>11389</v>
+        <v>12151</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="D13" t="n">
-        <v>1753</v>
+        <v>1870.3</v>
       </c>
       <c r="E13" t="n">
-        <v>11557</v>
+        <v>12375</v>
       </c>
       <c r="F13" t="n">
         <v>16.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1810</v>
+        <v>1938.1</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
       <c r="J13" t="n">
-        <v>22951</v>
+        <v>24532</v>
       </c>
       <c r="K13" t="n">
         <v>16.9</v>
@@ -6796,31 +6855,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>6893</v>
+        <v>7355</v>
       </c>
       <c r="C14" t="n">
         <v>10.3</v>
       </c>
       <c r="D14" t="n">
-        <v>1498.3</v>
+        <v>1598.7</v>
       </c>
       <c r="E14" t="n">
-        <v>6129</v>
+        <v>6571</v>
       </c>
       <c r="F14" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1287.1</v>
+        <v>1380</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>10.2</v>
+        <v>9.8</v>
       </c>
       <c r="J14" t="n">
-        <v>13027</v>
+        <v>13931</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -6831,34 +6890,34 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>4538</v>
+        <v>4842</v>
       </c>
       <c r="C15" t="n">
         <v>6.8</v>
       </c>
       <c r="D15" t="n">
-        <v>1375.8</v>
+        <v>1468</v>
       </c>
       <c r="E15" t="n">
-        <v>4061</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>1071.3</v>
+        <v>1151.7</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J15" t="n">
-        <v>8602</v>
+        <v>9211</v>
       </c>
       <c r="K15" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
@@ -6866,22 +6925,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>3335</v>
+        <v>3526</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1976.2</v>
+        <v>2089.3</v>
       </c>
       <c r="E16" t="n">
-        <v>5270</v>
+        <v>5572</v>
       </c>
       <c r="F16" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1907</v>
+        <v>2016.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6890,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8605</v>
+        <v>9098</v>
       </c>
       <c r="K16" t="n">
         <v>6.3</v>
@@ -6901,14 +6960,14 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
         <v>0.1</v>
@@ -6921,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -6999,16 +7058,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>6186</v>
+        <v>6640</v>
       </c>
       <c r="C8" t="n">
-        <v>912.1</v>
+        <v>979.1</v>
       </c>
       <c r="E8" t="n">
-        <v>2905</v>
+        <v>3217</v>
       </c>
       <c r="F8" t="n">
-        <v>428.3</v>
+        <v>474.3</v>
       </c>
     </row>
     <row r="9">
@@ -7016,16 +7075,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C9" t="n">
-        <v>1734.3</v>
+        <v>1852</v>
       </c>
       <c r="E9" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F9" t="n">
-        <v>1127.3</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10">
@@ -7033,16 +7092,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="C10" t="n">
-        <v>1153.3</v>
+        <v>1245.6</v>
       </c>
       <c r="E10" t="n">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="F10" t="n">
-        <v>673.5</v>
+        <v>733.2</v>
       </c>
     </row>
     <row r="11">
@@ -7050,16 +7109,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>11095</v>
+        <v>11819</v>
       </c>
       <c r="C11" t="n">
-        <v>1072</v>
+        <v>1142</v>
       </c>
       <c r="E11" t="n">
-        <v>6059</v>
+        <v>6510</v>
       </c>
       <c r="F11" t="n">
-        <v>585.4</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12">
@@ -7067,16 +7126,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>2409</v>
+        <v>2543</v>
       </c>
       <c r="C12" t="n">
-        <v>836.1</v>
+        <v>882.6</v>
       </c>
       <c r="E12" t="n">
-        <v>997</v>
+        <v>1075</v>
       </c>
       <c r="F12" t="n">
-        <v>346</v>
+        <v>373.1</v>
       </c>
     </row>
     <row r="13">
@@ -7084,16 +7143,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2438</v>
+        <v>2525</v>
       </c>
       <c r="C13" t="n">
-        <v>1251.8</v>
+        <v>1296.4</v>
       </c>
       <c r="E13" t="n">
-        <v>759</v>
+        <v>809</v>
       </c>
       <c r="F13" t="n">
-        <v>389.7</v>
+        <v>415.4</v>
       </c>
     </row>
     <row r="14">
@@ -7101,16 +7160,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.2</v>
+        <v>1266.4</v>
       </c>
       <c r="E14" t="n">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F14" t="n">
-        <v>740</v>
+        <v>784.3</v>
       </c>
     </row>
     <row r="15">
@@ -7118,16 +7177,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>7663</v>
+        <v>8237</v>
       </c>
       <c r="C15" t="n">
-        <v>2404.3</v>
+        <v>2584.4</v>
       </c>
       <c r="E15" t="n">
-        <v>4342</v>
+        <v>4760</v>
       </c>
       <c r="F15" t="n">
-        <v>1362.3</v>
+        <v>1493.5</v>
       </c>
     </row>
     <row r="16">
@@ -7135,16 +7194,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>18211</v>
+        <v>19750</v>
       </c>
       <c r="C16" t="n">
-        <v>3646</v>
+        <v>3954.1</v>
       </c>
       <c r="E16" t="n">
-        <v>7730</v>
+        <v>8951</v>
       </c>
       <c r="F16" t="n">
-        <v>1547.6</v>
+        <v>1792.1</v>
       </c>
     </row>
     <row r="17">
@@ -7152,16 +7211,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C17" t="n">
-        <v>987.6</v>
+        <v>1066.8</v>
       </c>
       <c r="E17" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F17" t="n">
-        <v>401</v>
+        <v>455.4</v>
       </c>
     </row>
     <row r="18">
@@ -7169,16 +7228,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>2254</v>
+        <v>2372</v>
       </c>
       <c r="C18" t="n">
-        <v>1136.2</v>
+        <v>1195.7</v>
       </c>
       <c r="E18" t="n">
-        <v>901</v>
+        <v>983</v>
       </c>
       <c r="F18" t="n">
-        <v>454.2</v>
+        <v>495.5</v>
       </c>
     </row>
     <row r="19">
@@ -7186,16 +7245,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>1597</v>
+        <v>1693</v>
       </c>
       <c r="C19" t="n">
-        <v>2175.2</v>
+        <v>2305.9</v>
       </c>
       <c r="E19" t="n">
-        <v>953</v>
+        <v>985</v>
       </c>
       <c r="F19" t="n">
-        <v>1298</v>
+        <v>1341.6</v>
       </c>
     </row>
     <row r="20">
@@ -7203,16 +7262,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>3858</v>
+        <v>4155</v>
       </c>
       <c r="C20" t="n">
-        <v>942</v>
+        <v>1014.5</v>
       </c>
       <c r="E20" t="n">
-        <v>2194</v>
+        <v>2399</v>
       </c>
       <c r="F20" t="n">
-        <v>535.7</v>
+        <v>585.8</v>
       </c>
     </row>
     <row r="21">
@@ -7220,16 +7279,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>3426</v>
+        <v>3791</v>
       </c>
       <c r="C21" t="n">
-        <v>1937.2</v>
+        <v>2143.6</v>
       </c>
       <c r="E21" t="n">
-        <v>1794</v>
+        <v>2075</v>
       </c>
       <c r="F21" t="n">
-        <v>1014.4</v>
+        <v>1173.3</v>
       </c>
     </row>
     <row r="22">
@@ -7237,16 +7296,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C22" t="n">
-        <v>895.4</v>
+        <v>934.7</v>
       </c>
       <c r="E22" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F22" t="n">
-        <v>374.8</v>
+        <v>393.3</v>
       </c>
     </row>
     <row r="23">
@@ -7254,16 +7313,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C23" t="n">
-        <v>977.8</v>
+        <v>996.3</v>
       </c>
       <c r="E23" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F23" t="n">
-        <v>499.5</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24">
@@ -7271,16 +7330,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>6094</v>
+        <v>6572</v>
       </c>
       <c r="C24" t="n">
-        <v>1200.3</v>
+        <v>1294.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3535</v>
+        <v>3822</v>
       </c>
       <c r="F24" t="n">
-        <v>696.3</v>
+        <v>752.8</v>
       </c>
     </row>
     <row r="25">
@@ -7288,16 +7347,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="C25" t="n">
-        <v>703.7</v>
+        <v>761.1</v>
       </c>
       <c r="E25" t="n">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F25" t="n">
-        <v>375.7</v>
+        <v>420.8</v>
       </c>
     </row>
     <row r="26">
@@ -7305,16 +7364,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>2100</v>
+        <v>2261</v>
       </c>
       <c r="C26" t="n">
-        <v>768.7</v>
+        <v>827.6</v>
       </c>
       <c r="E26" t="n">
-        <v>1016</v>
+        <v>1140</v>
       </c>
       <c r="F26" t="n">
-        <v>371.9</v>
+        <v>417.3</v>
       </c>
     </row>
     <row r="27">
@@ -7322,16 +7381,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>2791</v>
+        <v>2919</v>
       </c>
       <c r="C27" t="n">
-        <v>1753.5</v>
+        <v>1833.9</v>
       </c>
       <c r="E27" t="n">
-        <v>1560</v>
+        <v>1590</v>
       </c>
       <c r="F27" t="n">
-        <v>980.1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28">
@@ -7339,16 +7398,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>2323</v>
+        <v>2516</v>
       </c>
       <c r="C28" t="n">
-        <v>840.2</v>
+        <v>910</v>
       </c>
       <c r="E28" t="n">
-        <v>1333</v>
+        <v>1460</v>
       </c>
       <c r="F28" t="n">
-        <v>482.1</v>
+        <v>528.1</v>
       </c>
     </row>
     <row r="29">
@@ -7356,16 +7415,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>6441</v>
+        <v>6808</v>
       </c>
       <c r="C29" t="n">
-        <v>1822.9</v>
+        <v>1926.7</v>
       </c>
       <c r="E29" t="n">
-        <v>2387</v>
+        <v>2657</v>
       </c>
       <c r="F29" t="n">
-        <v>675.5</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30">
@@ -7373,16 +7432,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="C30" t="n">
-        <v>1026.5</v>
+        <v>1111.6</v>
       </c>
       <c r="E30" t="n">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F30" t="n">
-        <v>485.8</v>
+        <v>551.7</v>
       </c>
     </row>
     <row r="31">
@@ -7390,16 +7449,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>21720</v>
+        <v>23067</v>
       </c>
       <c r="C31" t="n">
-        <v>2717.9</v>
+        <v>2886.5</v>
       </c>
       <c r="E31" t="n">
-        <v>8825</v>
+        <v>9822</v>
       </c>
       <c r="F31" t="n">
-        <v>1104.3</v>
+        <v>1229.1</v>
       </c>
     </row>
     <row r="32">
@@ -7407,16 +7466,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>10494</v>
+        <v>11266</v>
       </c>
       <c r="C32" t="n">
-        <v>3051</v>
+        <v>3275.4</v>
       </c>
       <c r="E32" t="n">
-        <v>6693</v>
+        <v>7165</v>
       </c>
       <c r="F32" t="n">
-        <v>1945.9</v>
+        <v>2083.1</v>
       </c>
     </row>
     <row r="33">
@@ -7424,16 +7483,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1496</v>
+        <v>1559</v>
       </c>
       <c r="C33" t="n">
-        <v>1179.5</v>
+        <v>1229.1</v>
       </c>
       <c r="E33" t="n">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="F33" t="n">
-        <v>615</v>
+        <v>634.7</v>
       </c>
     </row>
     <row r="34">
@@ -7441,16 +7500,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>19577</v>
+        <v>20837</v>
       </c>
       <c r="C34" t="n">
-        <v>1287.1</v>
+        <v>1370</v>
       </c>
       <c r="E34" t="n">
-        <v>8842</v>
+        <v>9602</v>
       </c>
       <c r="F34" t="n">
-        <v>581.3</v>
+        <v>631.3</v>
       </c>
     </row>
     <row r="35">
@@ -7458,16 +7517,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>135658</v>
+        <v>145044</v>
       </c>
       <c r="C35" t="n">
-        <v>1580.6</v>
+        <v>1689.9</v>
       </c>
       <c r="E35" t="n">
-        <v>65441</v>
+        <v>71803</v>
       </c>
       <c r="F35" t="n">
-        <v>762.5</v>
+        <v>836.6</v>
       </c>
     </row>
     <row r="37">
@@ -7549,22 +7608,22 @@
         <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
         <v>6.9</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9">
@@ -7572,25 +7631,25 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="G9" t="n">
-        <v>9.2</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10">
@@ -7598,25 +7657,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F10" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="11">
@@ -7624,25 +7683,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F11" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="G11" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="H11" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -7650,25 +7709,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F12" t="n">
-        <v>36.9</v>
+        <v>37.8</v>
       </c>
       <c r="G12" t="n">
-        <v>43.2</v>
+        <v>44.5</v>
       </c>
       <c r="H12" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="13">
@@ -7676,25 +7735,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="C13" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="F13" t="n">
-        <v>68.9</v>
+        <v>70.6</v>
       </c>
       <c r="G13" t="n">
-        <v>86.2</v>
+        <v>88.7</v>
       </c>
       <c r="H13" t="n">
-        <v>51.2</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="14">
@@ -7702,25 +7761,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="C14" t="n">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1121</v>
+        <v>1172</v>
       </c>
       <c r="F14" t="n">
-        <v>119.7</v>
+        <v>125.2</v>
       </c>
       <c r="G14" t="n">
-        <v>162.4</v>
+        <v>169.1</v>
       </c>
       <c r="H14" t="n">
-        <v>78.1</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="15">
@@ -7728,25 +7787,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>928</v>
+        <v>976</v>
       </c>
       <c r="C15" t="n">
-        <v>613</v>
+        <v>654</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1541</v>
+        <v>1630</v>
       </c>
       <c r="F15" t="n">
-        <v>217.4</v>
+        <v>229.9</v>
       </c>
       <c r="G15" t="n">
-        <v>281.4</v>
+        <v>295.9</v>
       </c>
       <c r="H15" t="n">
-        <v>161.7</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="16">
@@ -7754,25 +7813,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>956</v>
+        <v>1007</v>
       </c>
       <c r="C16" t="n">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1849</v>
+        <v>1949</v>
       </c>
       <c r="F16" t="n">
-        <v>415.4</v>
+        <v>437.9</v>
       </c>
       <c r="G16" t="n">
-        <v>566.5</v>
+        <v>596.7</v>
       </c>
       <c r="H16" t="n">
-        <v>323.1</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="17">
@@ -7973,7 +8032,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>13</v>
@@ -7982,13 +8041,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n">
         <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -8025,25 +8084,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C15" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F15" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="G15" t="n">
-        <v>78.5</v>
+        <v>79.7</v>
       </c>
       <c r="H15" t="n">
-        <v>34.3</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="16">
@@ -8051,25 +8110,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="C16" t="n">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1366</v>
+        <v>1390</v>
       </c>
       <c r="F16" t="n">
-        <v>306.9</v>
+        <v>312.3</v>
       </c>
       <c r="G16" t="n">
-        <v>424.3</v>
+        <v>430.8</v>
       </c>
       <c r="H16" t="n">
-        <v>235.2</v>
+        <v>239.9</v>
       </c>
     </row>
     <row r="18">
@@ -8147,7 +8206,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -8159,13 +8218,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>100.264373561464</v>
+        <v>117.073400893827</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>60.7484145695931</v>
+        <v>63.8448143413442</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>246.384953266481</v>
+        <v>192.86147149764</v>
       </c>
     </row>
     <row r="9">
@@ -8219,20 +8278,26 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>513.054879480414</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>123.577625396506</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -8242,13 +8307,13 @@
         <v>44131</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>105.507198089764</v>
@@ -8268,13 +8333,13 @@
         <v>44131</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>271.094544222298</v>
@@ -8294,13 +8359,13 @@
         <v>44131</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>588.879045286362</v>
@@ -8320,13 +8385,13 @@
         <v>44131</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>1079.02382700478</v>
@@ -8346,13 +8411,13 @@
         <v>44131</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>755.185392808521</v>
@@ -8369,20 +8434,26 @@
         <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>245.031309556221</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>361.359305002104</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>123.753186644556</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -8392,13 +8463,13 @@
         <v>44131</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>246.497865197425</v>
@@ -8415,20 +8486,26 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1011.99961862733</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -8438,13 +8515,13 @@
         <v>44131</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>402.874325185505</v>
@@ -8464,13 +8541,13 @@
         <v>44131</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>517.953067571388</v>
@@ -8507,20 +8584,26 @@
         <v>56</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>274.834174572554</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>621.019529082212</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>200.840358341481</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -8550,13 +8633,13 @@
         <v>44131</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>295.15434620873</v>
@@ -8576,13 +8659,13 @@
         <v>44131</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>211.205224126445</v>
@@ -8619,20 +8702,26 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>220.275470933765</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>461.529558146937</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>163.850227147776</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -8642,13 +8731,13 @@
         <v>44131</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>0</v>
@@ -8668,13 +8757,13 @@
         <v>44131</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>367.798424505256</v>
@@ -8714,13 +8803,13 @@
         <v>44131</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>1415.30142024393</v>
@@ -8740,13 +8829,13 @@
         <v>44131</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>399.725632110504</v>
@@ -8766,13 +8855,13 @@
         <v>44131</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>388.371089990059</v>
